--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3728.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3728.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.258153190342269</v>
+        <v>2.688262462615967</v>
       </c>
       <c r="B1">
-        <v>2.377531679396919</v>
+        <v>2.450698614120483</v>
       </c>
       <c r="C1">
-        <v>5.689347455738981</v>
+        <v>2.1451096534729</v>
       </c>
       <c r="D1">
-        <v>2.846383947672442</v>
+        <v>1.755123615264893</v>
       </c>
       <c r="E1">
-        <v>1.127690302477848</v>
+        <v>1.380583047866821</v>
       </c>
     </row>
   </sheetData>
